--- a/statistics/HistoricalDistanceData/historical_distance/Q1144602-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q1144602-en.xlsx
@@ -37,15 +37,15 @@
     <t>Вину должны ощущать все мы</t>
   </si>
   <si>
+    <t>Extensions of Remarks</t>
+  </si>
+  <si>
+    <t>"Sumgait": Evidence given by witnesses and relatives of victims of pogroms</t>
+  </si>
+  <si>
     <t>Сумгаит: рассказы очевидцев</t>
   </si>
   <si>
-    <t>"Sumgait": Evidence given by witnesses and relatives of victims of pogroms</t>
-  </si>
-  <si>
-    <t>Extensions of Remarks</t>
-  </si>
-  <si>
     <t>2018-06-17T10:57:00UTC</t>
   </si>
   <si>
@@ -64,13 +64,13 @@
     <t>https://web.archive.org/web/20121008011210/http://karabakhrecords.info/gallery/%D0%B2%D0%B8%D0%BD%D1%83-%D0%B4%D0%BE%D0%BB%D0%B6%D0%BD%D1%8B-%D0%BE%D1%89%D1%83%D1%89%D0%B0%D1%82%D1%8C-%D0%B2%D1%81%D0%B5-%D0%BC%D1%8B/</t>
   </si>
   <si>
+    <t>http://beta.congress.gov/congressional-record/2013/2/28/extensions-of-remarks-section/article/E211-2</t>
+  </si>
+  <si>
+    <t>http://karabakhrecords.info/gallery/sumgait-witnesses-about-pogroms/</t>
+  </si>
+  <si>
     <t>http://karabakhrecords.info/gallery/%D1%81%D1%83%D0%BC%D0%B0%D0%B3%D0%B8%D1%82-%D1%80%D0%B0%D1%81%D1%81%D0%BA%D0%B0%D0%B7%D1%8B-%D0%BE%D1%87%D0%B5%D0%B2%D0%B8%D0%B4%D1%86%D0%B5%D0%B2-%D0%B3%D1%80%D1%83%D0%BF%D0%BF%D0%B0-%D0%B0%D1%80/</t>
-  </si>
-  <si>
-    <t>http://karabakhrecords.info/gallery/sumgait-witnesses-about-pogroms/</t>
-  </si>
-  <si>
-    <t>http://beta.congress.gov/congressional-record/2013/2/28/extensions-of-remarks-section/article/E211-2</t>
   </si>
 </sst>
 </file>
